--- a/biology/Botanique/Heliamphora_nutans/Heliamphora_nutans.xlsx
+++ b/biology/Botanique/Heliamphora_nutans/Heliamphora_nutans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliamphora nutans est une espèce de plantes à fleurs de la famille des Sarraceniaceae C'est une plante carnivore originaire des hauts plateaux du Venezuela, hauts plateaux rendus célèbre par Conan Doyle dans son roman Le monde perdu[1], et aussi du Brésil et du Guyana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliamphora nutans est une espèce de plantes à fleurs de la famille des Sarraceniaceae C'est une plante carnivore originaire des hauts plateaux du Venezuela, hauts plateaux rendus célèbre par Conan Doyle dans son roman Le monde perdu, et aussi du Brésil et du Guyana.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre dans différents tepuys : mont Roraima, tepuy Ilú, tepuy Tramen, tepuy Kukenan, tepuy Yuruaní. La forme géante est présente entre le mont Roraima et la Sierra do sol.
 </t>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, découverte en 1839 par les frères Schomburg, et décrite en 1841 par George Bentham est restée pendant près d'un siècle la seule espèce connue du genre Heliamphora.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliamphora nutans peut se traduire par "Heliamphore à fleurs inclinées".
 Cette plante carnivore pousse dans des sables gréseux et sur des rochers avec un peu d'humus.
